--- a/data/kl/MN/HCM-ACC-NON-RADAR.xlsx
+++ b/data/kl/MN/HCM-ACC-NON-RADAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8415" tabRatio="871"/>
+    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="871"/>
   </bookViews>
   <sheets>
     <sheet name="da lam" sheetId="23" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="867">
   <si>
     <t>ACC HO CHI MINH NON-RADAR  - LÝ THUYẾT CƠ SỞ</t>
   </si>
@@ -2624,12 +2624,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t>Acording to LOA between HCM ACC and TSN APP/TWR,</t>
     </r>
     <r>
@@ -2638,17 +2632,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> HCM ACC should coordinate with Phnompenh ACC to get aircraft at ….. by SAPEN when using STAR SAPEN 2</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">G </t>
+      <t xml:space="preserve"> HCM ACC should coordinate with Phnompenh ACC to get aircraft at ….. by SAPEN when using STAR SAPEN </t>
     </r>
     <r>
       <rPr>
@@ -2672,12 +2656,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t>Acording to LOA between HCM ACC and TSN APP/TWR,</t>
     </r>
     <r>
@@ -2699,16 +2677,6 @@
     </r>
     <r>
       <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> at ….. or lower</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
@@ -2845,18 +2813,273 @@
   <si>
     <t xml:space="preserve">Within 1850m (6000ft) and 3050m(10000ft) </t>
   </si>
+  <si>
+    <t>The NO-PDC FLs for traffic on Q2 are:</t>
+  </si>
+  <si>
+    <t>The NO-PDC FLs for traffic on Q1 are:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acording to LOA between HCM ACC and TSN APP/TWR, HCM ACC should coordinate with Phnompenh ACC to get aircraft at ….. or lower when using STAR SAPEN 2G </t>
+  </si>
+  <si>
+    <t>HCM ACC should coordinate with Phnompenh ACC to get aircraft at ….. or lower by SAPEN when using STAR SAPEN 2G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCM ACC should coordinate with Phnompenh ACC to get aircraft at ….. or lower by SAPEN when using STAR SAPEN 2H </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chose the correct name of RNAV1 STARS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Trombone</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for RWY25R at VVTS.</t>
+    </r>
+  </si>
+  <si>
+    <t>BAOMY 1G</t>
+  </si>
+  <si>
+    <t>BAOMY 1F</t>
+  </si>
+  <si>
+    <t>BAOMY 1E</t>
+  </si>
+  <si>
+    <t>BAOMY 1D</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Chose the correct name of RNAV1 STARS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Trombone</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for RWY25R at VVTS.</t>
+    </r>
+  </si>
+  <si>
+    <t>SAPEN 1K</t>
+  </si>
+  <si>
+    <t>SAPEN 1M</t>
+  </si>
+  <si>
+    <t>SAPEN 1L</t>
+  </si>
+  <si>
+    <t>SAPEN 1N</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Chose the correct name of RNAV1 STARS (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Trombone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>) for RWY25R at VVTS.</t>
+    </r>
+  </si>
+  <si>
+    <t>BITIS 1E</t>
+  </si>
+  <si>
+    <t>BITIS 1D</t>
+  </si>
+  <si>
+    <t>BITIS 1G</t>
+  </si>
+  <si>
+    <t>BITIS 1F</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Chose the correct name of RNAV1 STARS (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Trombone</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for RWY07L at VVTS.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Chose the correct name of RNAV1 STARS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (Trombone</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for RWY07L at VVTS.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2893,6 +3116,33 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2900,8 +3150,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2917,14 +3243,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2935,45 +3261,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2993,61 +3280,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3062,7 +3298,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <strike/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -3084,7 +3320,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3096,37 +3440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3138,19 +3470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3162,79 +3482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3252,19 +3500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3330,6 +3566,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3347,17 +3631,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3386,197 +3663,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3616,6 +3852,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3966,10 +4214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G238"/>
+  <dimension ref="A1:G259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="I227" sqref="I227"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8982,7 +9230,7 @@
       <c r="A220" s="12">
         <v>35</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="B220" s="14" t="s">
         <v>797</v>
       </c>
       <c r="C220" s="13">
@@ -9005,7 +9253,7 @@
       <c r="A221" s="12">
         <v>36</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="B221" s="14" t="s">
         <v>801</v>
       </c>
       <c r="C221" s="13">
@@ -9413,6 +9661,489 @@
       </c>
       <c r="G238" s="13" t="s">
         <v>820</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" spans="1:7">
+      <c r="A239" s="15">
+        <v>15</v>
+      </c>
+      <c r="B239" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="C239" s="13">
+        <v>1</v>
+      </c>
+      <c r="D239" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E239" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F239" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G239" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" spans="1:7">
+      <c r="A240" s="15">
+        <v>16</v>
+      </c>
+      <c r="B240" s="13" t="s">
+        <v>846</v>
+      </c>
+      <c r="C240" s="13">
+        <v>4</v>
+      </c>
+      <c r="D240" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E240" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F240" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G240" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="241" ht="31.5" spans="1:7">
+      <c r="A241" s="15">
+        <v>25</v>
+      </c>
+      <c r="B241" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C241" s="13">
+        <v>4</v>
+      </c>
+      <c r="D241" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E241" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F241" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="G241" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="242" ht="31.5" spans="1:7">
+      <c r="A242" s="15">
+        <v>26</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C242" s="13">
+        <v>4</v>
+      </c>
+      <c r="D242" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G242" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="243" ht="31.5" spans="1:7">
+      <c r="A243" s="15">
+        <v>24</v>
+      </c>
+      <c r="B243" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C243" s="13">
+        <v>2</v>
+      </c>
+      <c r="D243" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="E243" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="F243" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="G243" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="244" ht="78.75" spans="1:7">
+      <c r="A244" s="15">
+        <v>27</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="C244" s="17">
+        <v>2</v>
+      </c>
+      <c r="D244" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="F244" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="G244" s="16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="245" ht="78.75" spans="1:7">
+      <c r="A245" s="15">
+        <v>28</v>
+      </c>
+      <c r="B245" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="C245" s="17">
+        <v>1</v>
+      </c>
+      <c r="D245" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F245" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="G245" s="16" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="246" ht="78.75" spans="1:7">
+      <c r="A246" s="15">
+        <v>29</v>
+      </c>
+      <c r="B246" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="C246" s="17">
+        <v>3</v>
+      </c>
+      <c r="D246" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="F246" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="G246" s="16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="247" ht="78.75" spans="1:7">
+      <c r="A247" s="15">
+        <v>30</v>
+      </c>
+      <c r="B247" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="C247" s="17">
+        <v>2</v>
+      </c>
+      <c r="D247" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="F247" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="G247" s="16" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="248" ht="78.75" spans="1:7">
+      <c r="A248" s="15">
+        <v>31</v>
+      </c>
+      <c r="B248" s="16" t="s">
+        <v>786</v>
+      </c>
+      <c r="C248" s="17">
+        <v>4</v>
+      </c>
+      <c r="D248" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="F248" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="G248" s="16" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="249" ht="78.75" spans="1:7">
+      <c r="A249" s="15">
+        <v>32</v>
+      </c>
+      <c r="B249" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="C249" s="17">
+        <v>3</v>
+      </c>
+      <c r="D249" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="F249" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="G249" s="16" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="250" ht="78.75" spans="1:7">
+      <c r="A250" s="15">
+        <v>33</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="C250" s="17">
+        <v>2</v>
+      </c>
+      <c r="D250" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E250" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="F250" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="G250" s="16" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="251" ht="78.75" spans="1:7">
+      <c r="A251" s="15">
+        <v>34</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>847</v>
+      </c>
+      <c r="C251" s="17">
+        <v>2</v>
+      </c>
+      <c r="D251" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="F251" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="G251" s="16" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="252" ht="63" spans="1:7">
+      <c r="A252" s="15">
+        <v>35</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>848</v>
+      </c>
+      <c r="C252" s="17">
+        <v>3</v>
+      </c>
+      <c r="D252" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E252" s="16" t="s">
+        <v>783</v>
+      </c>
+      <c r="F252" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="G252" s="16" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="253" ht="63" spans="1:7">
+      <c r="A253" s="15">
+        <v>36</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>849</v>
+      </c>
+      <c r="C253" s="17">
+        <v>1</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="E253" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="F253" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="G253" s="16" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="254" ht="47.25" spans="1:7">
+      <c r="A254" s="15">
+        <v>37</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="C254" s="17">
+        <v>1</v>
+      </c>
+      <c r="D254" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="E254" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="F254" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="G254" s="16" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="255" ht="47.25" spans="1:7">
+      <c r="A255" s="15">
+        <v>11</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>850</v>
+      </c>
+      <c r="C255" s="17">
+        <v>1</v>
+      </c>
+      <c r="D255" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="E255" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="F255" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="G255" s="16" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="256" ht="47.25" spans="1:7">
+      <c r="A256" s="15">
+        <v>12</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>855</v>
+      </c>
+      <c r="C256" s="17">
+        <v>4</v>
+      </c>
+      <c r="D256" s="16" t="s">
+        <v>856</v>
+      </c>
+      <c r="E256" s="16" t="s">
+        <v>857</v>
+      </c>
+      <c r="F256" s="16" t="s">
+        <v>858</v>
+      </c>
+      <c r="G256" s="16" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="257" ht="47.25" spans="1:7">
+      <c r="A257" s="15">
+        <v>13</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>860</v>
+      </c>
+      <c r="C257" s="17">
+        <v>3</v>
+      </c>
+      <c r="D257" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>862</v>
+      </c>
+      <c r="F257" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="G257" s="16" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="258" ht="47.25" spans="1:7">
+      <c r="A258" s="15">
+        <v>14</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>865</v>
+      </c>
+      <c r="C258" s="17">
+        <v>2</v>
+      </c>
+      <c r="D258" s="16" t="s">
+        <v>861</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>862</v>
+      </c>
+      <c r="F258" s="16" t="s">
+        <v>863</v>
+      </c>
+      <c r="G258" s="16" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="259" ht="47.25" spans="1:7">
+      <c r="A259" s="15">
+        <v>16</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="C259" s="17">
+        <v>4</v>
+      </c>
+      <c r="D259" s="16" t="s">
+        <v>851</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="F259" s="16" t="s">
+        <v>853</v>
+      </c>
+      <c r="G259" s="16" t="s">
+        <v>854</v>
       </c>
     </row>
   </sheetData>
